--- a/Running projects/BAF Head Office/001 Quotation for GI and PPRC Pipe.xlsx
+++ b/Running projects/BAF Head Office/001 Quotation for GI and PPRC Pipe.xlsx
@@ -3,23 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE2BBB6-9992-467A-B1B9-2FE79EE68B74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DC56C8-1E38-4ACE-9651-85FEE91D27A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HVAC" sheetId="2" r:id="rId1"/>
+    <sheet name="opt 1" sheetId="2" r:id="rId1"/>
+    <sheet name="opt 2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$51</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$23:$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'opt 1'!$A$1:$H$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'opt 2'!$A$1:$H$52</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'opt 1'!$24:$24</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'opt 2'!$24:$24</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
   <si>
     <t>S. #</t>
   </si>
@@ -98,9 +101,6 @@
     <t>M/S Bank Al Falah Limited</t>
   </si>
   <si>
-    <t>13 Feb 2025</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>Leaking Overhead water transfer pipe and fittings -  Bank Al-Falah Head Office Karachi.</t>
+  </si>
+  <si>
+    <t>OPTION 1: PPRC PIPE BRAND HAKAN GEORGE FISCHER UAE.</t>
+  </si>
+  <si>
+    <t>OPTION 2: PPRC PIPE BRAND DADEX</t>
+  </si>
+  <si>
+    <t>19 Feb 2025</t>
+  </si>
+  <si>
+    <t>002</t>
   </si>
 </sst>
 </file>
@@ -723,7 +735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -921,29 +933,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1013,9 +1046,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1041,13 +1071,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>163513</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>521083</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1209,6 +1239,216 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73771958-64D6-47E5-9919-724ED9A24561}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="547689" y="31751"/>
+          <a:ext cx="880732" cy="749658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>163513</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>521083</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6091839-01AC-4138-B075-7D22892C6875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="163513" y="7834313"/>
+          <a:ext cx="643320" cy="592137"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1179508</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DF9415-1ED5-4CD0-8F84-B0E7B74EF743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1465258" y="175203"/>
+          <a:ext cx="4597405" cy="586798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>IONEER </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>ERVICES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Book Antiqua"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>261939</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1142671</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>67034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE329EDE-5F9B-4C34-887E-BF7D7AE0F08F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1566,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:R57"/>
+  <dimension ref="A4:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1599,11 +1839,11 @@
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
     </row>
     <row r="9" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
@@ -1616,20 +1856,20 @@
         <v>10</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="106"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="26"/>
       <c r="D10" s="23"/>
       <c r="F10" s="30"/>
       <c r="G10" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1641,21 +1881,21 @@
       <c r="G11" s="19"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="88" t="s">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
     </row>
     <row r="13" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="73"/>
       <c r="D13" s="73"/>
       <c r="E13" s="73"/>
@@ -1664,70 +1904,70 @@
       <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75"/>
-      <c r="B14" s="75"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="73"/>
       <c r="D14" s="73"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
-      <c r="G14" s="87" t="s">
+      <c r="G14" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="87"/>
+      <c r="H14" s="94"/>
     </row>
     <row r="15" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
     </row>
     <row r="17" spans="1:9" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
     </row>
     <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
+      <c r="A18" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
     </row>
     <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
     </row>
     <row r="20" spans="1:9" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
@@ -1740,144 +1980,127 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-    </row>
-    <row r="22" spans="1:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="59" t="s">
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+    </row>
+    <row r="23" spans="1:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="A24" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B24" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C24" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D24" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E24" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F24" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G24" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="62" t="s">
+      <c r="H24" s="62" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
         <v>1</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="B25" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D25" s="17">
         <v>1</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18">
         <v>50000</v>
-      </c>
-      <c r="G24" s="18">
-        <f>E24*D24</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="63">
-        <f>F24*D24</f>
-        <v>50000</v>
-      </c>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
-        <v>2</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="17">
-        <v>160</v>
-      </c>
-      <c r="E25" s="18">
-        <v>7950</v>
-      </c>
-      <c r="F25" s="18">
-        <v>1000</v>
       </c>
       <c r="G25" s="18">
         <f>E25*D25</f>
-        <v>1272000</v>
+        <v>0</v>
       </c>
       <c r="H25" s="63">
         <f>F25*D25</f>
-        <v>160000</v>
+        <v>50000</v>
       </c>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D26" s="17">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="E26" s="18">
-        <v>25000</v>
+        <v>7950</v>
       </c>
       <c r="F26" s="18">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="G26" s="18">
         <f>E26*D26</f>
-        <v>25000</v>
+        <v>1272000</v>
       </c>
       <c r="H26" s="63">
         <f>F26*D26</f>
-        <v>15000</v>
+        <v>160000</v>
       </c>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>22</v>
@@ -1886,458 +2109,1282 @@
         <v>1</v>
       </c>
       <c r="E27" s="18">
+        <v>25000</v>
+      </c>
+      <c r="F27" s="18">
+        <v>15000</v>
+      </c>
+      <c r="G27" s="18">
+        <f>E27*D27</f>
+        <v>25000</v>
+      </c>
+      <c r="H27" s="63">
+        <f>F27*D27</f>
+        <v>15000</v>
+      </c>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
+        <v>4</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18">
         <v>75000</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F28" s="18">
         <v>25000</v>
       </c>
-      <c r="G27" s="18">
-        <f t="shared" ref="G27" si="0">E27*D27</f>
+      <c r="G28" s="18">
+        <f t="shared" ref="G28" si="0">E28*D28</f>
         <v>75000</v>
       </c>
-      <c r="H27" s="63">
-        <f t="shared" ref="H27" si="1">F27*D27</f>
+      <c r="H28" s="63">
+        <f t="shared" ref="H28" si="1">F28*D28</f>
         <v>25000</v>
       </c>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="79">
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="78">
         <v>5</v>
       </c>
-      <c r="B28" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="79" t="s">
+      <c r="B29" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="79">
+      <c r="D29" s="78">
         <v>1</v>
       </c>
-      <c r="E28" s="81">
+      <c r="E29" s="80">
         <v>0</v>
       </c>
-      <c r="F28" s="81">
+      <c r="F29" s="80">
         <v>15000</v>
       </c>
-      <c r="G28" s="81">
-        <f t="shared" ref="G28" si="2">E28*D28</f>
+      <c r="G29" s="80">
+        <f t="shared" ref="G29" si="2">E29*D29</f>
         <v>0</v>
       </c>
-      <c r="H28" s="82">
-        <f t="shared" ref="H28" si="3">F28*D28</f>
+      <c r="H29" s="81">
+        <f t="shared" ref="H29" si="3">F29*D29</f>
         <v>15000</v>
       </c>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="89" t="s">
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="78">
-        <f>SUM(G24:G28)</f>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="77">
+        <f>SUM(G25:G29)</f>
         <v>1372000</v>
       </c>
-      <c r="H29" s="78">
-        <f>SUM(H24:H28)</f>
+      <c r="H30" s="77">
+        <f>SUM(H25:H29)</f>
         <v>265000</v>
       </c>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="89" t="s">
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="20">
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="20">
         <v>0</v>
       </c>
-      <c r="H30" s="20">
-        <f>H29*15%</f>
+      <c r="H31" s="20">
+        <f>H30*15%</f>
         <v>39750</v>
       </c>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="20">
-        <f>G30+G29</f>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="20">
+        <f>G31+G30</f>
         <v>1372000</v>
       </c>
-      <c r="H31" s="20">
-        <f>H30+H29</f>
+      <c r="H32" s="20">
+        <f>H31+H30</f>
         <v>304750</v>
       </c>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="89" t="s">
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67">
-        <f>H31+G31</f>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67">
+        <f>H32+G32</f>
         <v>1676750</v>
       </c>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:18" ht="10.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="90" t="s">
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" ht="10.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" spans="1:18" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="91" t="s">
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-    </row>
-    <row r="36" spans="1:18" ht="9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:18" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="32" t="s">
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+    </row>
+    <row r="37" spans="1:10" ht="9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B38" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C38" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D38" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E38" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F38" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="34" t="s">
+      <c r="G38" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H38" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="50">
+    <row r="39" spans="1:10" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="50">
         <v>1</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C39" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D39" s="37">
         <v>1</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E39" s="38">
         <v>350000</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F39" s="38">
         <v>8000</v>
       </c>
-      <c r="G38" s="38">
-        <f>E38*D38</f>
+      <c r="G39" s="38">
+        <f>E39*D39</f>
         <v>350000</v>
       </c>
-      <c r="H38" s="39">
-        <f>F38*D38</f>
+      <c r="H39" s="39">
+        <f>F39*D39</f>
         <v>8000</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53">
+    <row r="40" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="53">
         <v>2</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B40" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C40" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="55">
+      <c r="D40" s="55">
         <v>1</v>
       </c>
-      <c r="E39" s="56">
+      <c r="E40" s="56">
         <v>980000</v>
       </c>
-      <c r="F39" s="56">
+      <c r="F40" s="56">
         <v>15000</v>
       </c>
-      <c r="G39" s="56">
-        <f>E39*D39</f>
+      <c r="G40" s="56">
+        <f>E40*D40</f>
         <v>980000</v>
       </c>
-      <c r="H39" s="57">
-        <f>F39*D39</f>
+      <c r="H40" s="57">
+        <f>F40*D40</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="40"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="44"/>
-    </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="92" t="s">
+    <row r="41" spans="1:10" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="45">
-        <f>SUM(G38:G40)</f>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="45">
+        <f>SUM(G39:G41)</f>
         <v>1330000</v>
       </c>
-      <c r="H41" s="46">
-        <f>SUM(H38:H40)</f>
+      <c r="H42" s="46">
+        <f>SUM(H39:H41)</f>
         <v>23000</v>
       </c>
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="95" t="s">
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="20">
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="20">
         <v>0</v>
       </c>
-      <c r="H42" s="47">
-        <f>H41*13%</f>
+      <c r="H43" s="47">
+        <f>H42*13%</f>
         <v>2990</v>
       </c>
-      <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="1:18" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="98" t="s">
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="48">
-        <f>G42+G41</f>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="48">
+        <f>G43+G42</f>
         <v>1330000</v>
       </c>
-      <c r="H43" s="49">
-        <f>H42+H41</f>
+      <c r="H44" s="49">
+        <f>H43+H42</f>
         <v>25990</v>
       </c>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="1:18" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="101" t="s">
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="52">
-        <f>H43+G43</f>
+      <c r="B45" s="109"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="52">
+        <f>H44+G44</f>
         <v>1355990</v>
       </c>
-      <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="1:18" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="104"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
+    <row r="46" spans="1:10" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:18" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="J47" s="14"/>
-    </row>
-    <row r="48" spans="1:18" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="85" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="111"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:10" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:18" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="85"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="66"/>
-      <c r="M48" s="64"/>
-      <c r="Q48" s="66"/>
-      <c r="R48" s="66"/>
-    </row>
-    <row r="49" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="F49" s="8"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="9"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="5:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="13"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="66"/>
+      <c r="M49" s="64"/>
+      <c r="Q49" s="66"/>
+      <c r="R49" s="66"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F50" s="8"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="9"/>
       <c r="M50" s="2"/>
-      <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="5:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="13"/>
       <c r="M51" s="2"/>
-      <c r="O51" s="13"/>
-    </row>
-    <row r="52" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="68"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M52" s="2"/>
       <c r="O52" s="13"/>
     </row>
-    <row r="53" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="69"/>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="88"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="68"/>
       <c r="O53" s="13"/>
     </row>
-    <row r="54" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-    </row>
-    <row r="55" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-    </row>
-    <row r="57" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="I57" s="70"/>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="69"/>
+      <c r="O54" s="13"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E55" s="112"/>
+      <c r="F55" s="112"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I58" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E52:F52"/>
+  <mergeCells count="26">
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A47:F47"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A18:H19"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A35:H35"/>
     <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A36:H36"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="51" max="7" man="1"/>
+    <brk id="52" max="7" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C9F45E-8670-461E-9905-F1B9A503F7E7}">
+  <dimension ref="A4:R58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="82" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="82" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="82" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="82" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="1"/>
+    <col min="17" max="18" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+    </row>
+    <row r="9" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="23"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+    </row>
+    <row r="13" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="93"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="74"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="94"/>
+    </row>
+    <row r="15" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+    </row>
+    <row r="17" spans="1:9" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="95"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+    </row>
+    <row r="20" spans="1:9" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+    </row>
+    <row r="23" spans="1:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="A24" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
+        <v>1</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18">
+        <v>50000</v>
+      </c>
+      <c r="G25" s="18">
+        <f>E25*D25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="63">
+        <f>F25*D25</f>
+        <v>50000</v>
+      </c>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
+        <v>2</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="17">
+        <v>160</v>
+      </c>
+      <c r="E26" s="18">
+        <v>4850</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="18">
+        <f>E26*D26</f>
+        <v>776000</v>
+      </c>
+      <c r="H26" s="63">
+        <f>F26*D26</f>
+        <v>160000</v>
+      </c>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
+        <v>3</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18">
+        <v>25000</v>
+      </c>
+      <c r="F27" s="18">
+        <v>15000</v>
+      </c>
+      <c r="G27" s="18">
+        <f>E27*D27</f>
+        <v>25000</v>
+      </c>
+      <c r="H27" s="63">
+        <f>F27*D27</f>
+        <v>15000</v>
+      </c>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
+        <v>4</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18">
+        <v>75000</v>
+      </c>
+      <c r="F28" s="18">
+        <v>25000</v>
+      </c>
+      <c r="G28" s="18">
+        <f t="shared" ref="G28:G29" si="0">E28*D28</f>
+        <v>75000</v>
+      </c>
+      <c r="H28" s="63">
+        <f t="shared" ref="H28:H29" si="1">F28*D28</f>
+        <v>25000</v>
+      </c>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="78">
+        <v>5</v>
+      </c>
+      <c r="B29" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="78">
+        <v>1</v>
+      </c>
+      <c r="E29" s="80">
+        <v>0</v>
+      </c>
+      <c r="F29" s="80">
+        <v>15000</v>
+      </c>
+      <c r="G29" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="81">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="77">
+        <f>SUM(G25:G29)</f>
+        <v>876000</v>
+      </c>
+      <c r="H30" s="77">
+        <f>SUM(H25:H29)</f>
+        <v>265000</v>
+      </c>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="20">
+        <v>0</v>
+      </c>
+      <c r="H31" s="20">
+        <f>H30*15%</f>
+        <v>39750</v>
+      </c>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="20">
+        <f>G31+G30</f>
+        <v>876000</v>
+      </c>
+      <c r="H32" s="20">
+        <f>H31+H30</f>
+        <v>304750</v>
+      </c>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67">
+        <f>H32+G32</f>
+        <v>1180750</v>
+      </c>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" ht="10.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="87"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" ht="24" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+    </row>
+    <row r="37" spans="1:10" ht="9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="86"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+    </row>
+    <row r="38" spans="1:10" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="50">
+        <v>1</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="37">
+        <v>1</v>
+      </c>
+      <c r="E39" s="38">
+        <v>350000</v>
+      </c>
+      <c r="F39" s="38">
+        <v>8000</v>
+      </c>
+      <c r="G39" s="38">
+        <f>E39*D39</f>
+        <v>350000</v>
+      </c>
+      <c r="H39" s="39">
+        <f>F39*D39</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="53">
+        <v>2</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="55">
+        <v>1</v>
+      </c>
+      <c r="E40" s="56">
+        <v>980000</v>
+      </c>
+      <c r="F40" s="56">
+        <v>15000</v>
+      </c>
+      <c r="G40" s="56">
+        <f>E40*D40</f>
+        <v>980000</v>
+      </c>
+      <c r="H40" s="57">
+        <f>F40*D40</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+    </row>
+    <row r="42" spans="1:10" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="45">
+        <f>SUM(G39:G41)</f>
+        <v>1330000</v>
+      </c>
+      <c r="H42" s="46">
+        <f>SUM(H39:H41)</f>
+        <v>23000</v>
+      </c>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="20">
+        <v>0</v>
+      </c>
+      <c r="H43" s="47">
+        <f>H42*13%</f>
+        <v>2990</v>
+      </c>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:10" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="48">
+        <f>G43+G42</f>
+        <v>1330000</v>
+      </c>
+      <c r="H44" s="49">
+        <f>H43+H42</f>
+        <v>25990</v>
+      </c>
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="1:10" ht="20.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="109"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="52">
+        <f>H44+G44</f>
+        <v>1355990</v>
+      </c>
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="1:10" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="87"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="111"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:10" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="87"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:18" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="92"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="66"/>
+      <c r="M49" s="64"/>
+      <c r="Q49" s="66"/>
+      <c r="R49" s="66"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F50" s="8"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="9"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="13"/>
+      <c r="M51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M52" s="2"/>
+      <c r="O52" s="13"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="88"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="68"/>
+      <c r="O53" s="13"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="69"/>
+      <c r="O54" s="13"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E55" s="112"/>
+      <c r="F55" s="112"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I58" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A18:H19"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="52" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
